--- a/ML-python.xlsx
+++ b/ML-python.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ubuntu\machine-learning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466381B5-7178-4231-8EFB-943236DD7DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="569" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">    - Computer vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Language Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Creativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Clastering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Deep Learning</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mimics human I)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Subset of AI, more statistical)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Revolotion in ML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Special field of ML)</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +129,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +446,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="119" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ML-python.xlsx
+++ b/ML-python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ubuntu\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466381B5-7178-4231-8EFB-943236DD7DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD080C10-7064-4624-903C-20C6DECDB094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="569" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">    - Computer vision</t>
   </si>
@@ -114,6 +114,58 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (Special field of ML)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">معمولا در کارهای کلاسترینگ یا خوشه بندی کردن </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UnSupervied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> اتفاق می افتد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">در کارهای رگرسیونی </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supervised</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> اتفاق می افتد.</t>
     </r>
   </si>
 </sst>
@@ -121,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +189,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,9 +230,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A13"/>
+  <dimension ref="A2:A17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,6 +581,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
